--- a/Download/Importacion.xlsx
+++ b/Download/Importacion.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOS\ET.CRM.SGC\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAGE\Documents\Eratec\SGC.FRONT\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
   <si>
     <t>Document</t>
   </si>
@@ -97,12 +97,6 @@
     <t>CustBagName</t>
   </si>
   <si>
-    <t>BagID</t>
-  </si>
-  <si>
-    <t>CustomerID</t>
-  </si>
-  <si>
     <t>SubBagID</t>
   </si>
   <si>
@@ -296,12 +290,42 @@
   </si>
   <si>
     <t>AgentID</t>
+  </si>
+  <si>
+    <t>NroDocumento</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>Origen</t>
+  </si>
+  <si>
+    <t>Urbanizacion</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Ciudad</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>Distrito</t>
+  </si>
+  <si>
+    <t>Referencia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -813,7 +837,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -1151,20 +1175,20 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -1233,14 +1257,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1277,17 +1301,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1297,75 +1354,73 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BN1"/>
+  <dimension ref="A1:BL1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="18" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="18" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>27</v>
@@ -1546,12 +1601,6 @@
       </c>
       <c r="BL1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1562,29 +1611,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
